--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>885570.4519541946</v>
+        <v>879708.131919015</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10326037.08381131</v>
+        <v>10324857.12503047</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>136.8130018650725</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>122.4360853739822</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>132.318795305606</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>69.98930104614885</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>273.0891598015559</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>116.876383545772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103.9230914483281</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>203.074758615769</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -978,16 +978,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>100.8996439579084</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968088</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>53.197006859175</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>227.7981557993275</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>354.7617209972992</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.23439368497426</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>26.24962422171318</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>157.0321099707008</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>319.844457292782</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>40.78297506860809</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11.33369030650495</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1582,7 +1582,7 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1613,19 +1613,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>171.1886243209707</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>160.3141654772069</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>19.27362179500934</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>93.16084888546035</v>
       </c>
     </row>
     <row r="17">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927754</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838878</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828891</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431723</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459964</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643936</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931847</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908574</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147788</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804992</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922185</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367777</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920509</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875456</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.4884501927765</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1414.331329639091</v>
+        <v>999.032655102558</v>
       </c>
       <c r="C2" t="n">
-        <v>1276.13637826023</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="D2" t="n">
-        <v>1276.13637826023</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E2" t="n">
-        <v>873.552853376774</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475493</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475493</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475493</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475493</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354857</v>
+        <v>1058.738054302317</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572948</v>
+        <v>1572.340732912005</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465276</v>
+        <v>2012.380333804334</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737746</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737746</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737746</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737746</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="W2" t="n">
-        <v>1803.783934706034</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="X2" t="n">
-        <v>1414.331329639091</v>
+        <v>1395.523364181957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1414.331329639091</v>
+        <v>999.032655102558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021415</v>
+        <v>574.3337716287374</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622337</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="D3" t="n">
-        <v>375.070220083714</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946018</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777336</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475493</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475493</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475493</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475493</v>
+        <v>158.7695259828351</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930682</v>
+        <v>642.3356118811483</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875477</v>
+        <v>1155.938290490837</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875477</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466458</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734588</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917584</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675956</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431029</v>
+        <v>707.9891204222788</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>583.330228098702</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>307.4825919355142</v>
       </c>
       <c r="V4" t="n">
-        <v>678.9633367571316</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="W4" t="n">
-        <v>395.6329346883093</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="X4" t="n">
-        <v>161.5526124712923</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.065471781379</v>
+        <v>1537.649747726261</v>
       </c>
       <c r="C5" t="n">
-        <v>1011.889970284309</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="D5" t="n">
-        <v>1011.889970284309</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E5" t="n">
-        <v>1011.889970284309</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>547.1277883310449</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>858.7445930764342</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N5" t="n">
-        <v>1386.555876713896</v>
+        <v>1921.011251721706</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606225</v>
+        <v>1921.011251721706</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737746</v>
+        <v>1921.011251721706</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023268</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023268</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023268</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="U5" t="n">
-        <v>1881.037326457867</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.037326457867</v>
+        <v>1908.648782757973</v>
       </c>
       <c r="W5" t="n">
-        <v>1510.038291426155</v>
+        <v>1537.649747726261</v>
       </c>
       <c r="X5" t="n">
-        <v>1510.038291426155</v>
+        <v>1537.649747726261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1510.038291426155</v>
+        <v>1537.649747726261</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813175</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414097</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284334</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475493</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>43.49565939475493</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="M6" t="n">
-        <v>581.7544444048472</v>
+        <v>874.8450714282532</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875477</v>
+        <v>921.5731989359462</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466458</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737746</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737746</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222788</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284.9342147184831</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="C7" t="n">
-        <v>284.9342147184831</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="D7" t="n">
-        <v>284.9342147184831</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="E7" t="n">
-        <v>231.19986435568</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U7" t="n">
-        <v>742.1265981188567</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="V7" t="n">
-        <v>742.1265981188567</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="W7" t="n">
-        <v>742.1265981188567</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="X7" t="n">
-        <v>508.0462759018397</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="Y7" t="n">
-        <v>284.9342147184831</v>
+        <v>218.9763418905753</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2365.64850507718</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="C8" t="n">
-        <v>1972.473003580111</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="D8" t="n">
-        <v>1742.373856308063</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4805,49 +4805,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>173.6308686433316</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1403.703006901093</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>1014.250401834149</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4884,13 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195844</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>643.9940382195844</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.4142182347623</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
-        <v>546.2091003007515</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>390.5759872032662</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>235.0171750624687</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="S10" t="n">
-        <v>745.9439088256454</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="T10" t="n">
-        <v>745.9439088256454</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="U10" t="n">
-        <v>745.9439088256454</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="V10" t="n">
-        <v>745.9439088256454</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="W10" t="n">
-        <v>745.9439088256454</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="X10" t="n">
-        <v>745.9439088256454</v>
+        <v>402.7261067268557</v>
       </c>
       <c r="Y10" t="n">
-        <v>745.9439088256454</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1459.556716529488</v>
+        <v>1435.837779556535</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.556716529488</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>800.8136995685217</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550881</v>
+        <v>470.02644983126</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312599</v>
+        <v>470.02644983126</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654569</v>
+        <v>128.659969465457</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5072,19 +5072,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2700.916485098934</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2430.605950948645</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2430.605950948645</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>2112.949621027896</v>
+        <v>2087.611459508387</v>
       </c>
       <c r="Y11" t="n">
-        <v>1788.255187094691</v>
+        <v>1764.536250121738</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>689.8907773307967</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
-        <v>1345.668748541356</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O12" t="n">
-        <v>1862.189031132337</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P12" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>316.9565686277458</v>
+        <v>103.3140520158407</v>
       </c>
       <c r="C13" t="n">
-        <v>218.5477258399287</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>218.5477258399287</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>218.5477258399287</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>218.5477258399287</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1149.685342236449</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V13" t="n">
-        <v>955.5022722034674</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="W13" t="n">
-        <v>743.9681452808389</v>
+        <v>530.3256286689339</v>
       </c>
       <c r="X13" t="n">
-        <v>581.6840982100159</v>
+        <v>368.0415815981108</v>
       </c>
       <c r="Y13" t="n">
-        <v>430.3683121728532</v>
+        <v>216.7257955609481</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.935942880364</v>
+        <v>1463.714265689663</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.556716529488</v>
+        <v>1142.335039338787</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>828.6901857016489</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550881</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312598</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654569</v>
+        <v>314.405902991431</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2589.224243848344</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2427.290743366316</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>2109.634413445567</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>2109.634413445567</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>381.858273766342</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1009.629923393023</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1665.407894603582</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
-        <v>2146.089571124861</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.3326729474584</v>
+        <v>160.5279704919324</v>
       </c>
       <c r="C16" t="n">
-        <v>472.9238301596414</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>389.08699220835</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>389.08699220835</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675166</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>207.099553813156</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,19 +5437,19 @@
         <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5461,25 +5461,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1425.159622749834</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1261.236846064262</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1047.594329452357</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V16" t="n">
-        <v>1047.594329452357</v>
+        <v>741.8597555915625</v>
       </c>
       <c r="W16" t="n">
-        <v>836.0602025297287</v>
+        <v>530.325628668934</v>
       </c>
       <c r="X16" t="n">
-        <v>836.0602025297287</v>
+        <v>368.041581598111</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.7444164925658</v>
+        <v>273.9397140370398</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
         <v>68.7795079292422</v>
@@ -5546,10 +5546,10 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
         <v>2405.46733722469</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1009.629923393023</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5671,22 +5671,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.6987703122989</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222408</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5732,19 +5732,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>490.2252314250076</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.156408878212</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222412</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L22" t="n">
-        <v>313.661451296041</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829235</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>596.176270190801</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6139,34 +6139,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>435.0968109750523</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133163</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>804.5780233445255</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862335</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6227,46 +6227,46 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>755.8323718938489</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1249.152663612378</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6306,19 +6306,19 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>1095.935962441339</v>
+        <v>1297.817576692272</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1953.595547902831</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6382,7 +6382,7 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192011</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388004</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>700.0178648958355</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343938</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118092</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485127</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6497,13 +6497,13 @@
         <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6540,19 +6540,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1095.935962441339</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>1532.448062118649</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057088</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741586</v>
+        <v>1287.81179740713</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513237</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150699</v>
+        <v>2404.684126952456</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770098</v>
+        <v>2844.723727844785</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.49561390162</v>
+        <v>3192.911219976306</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1747.89662294511</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996512</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918659</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237453</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123125</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546501</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834603</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431901</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>225.4160927170969</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805496</v>
+        <v>389.5437325908966</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458839</v>
+        <v>575.8353109291606</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041634</v>
+        <v>870.6770655353528</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145871</v>
+        <v>1145.033953152044</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.41832664952</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395505</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000928</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124405</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584486</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>691.2836731261136</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1319.055322752795</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1974.833293963354</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.71782091847</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.009399256734</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,10 +7208,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7254,19 +7254,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,13 +7339,13 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
         <v>1089.200323498045</v>
@@ -7354,28 +7354,28 @@
         <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7394,34 +7394,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129439</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404059</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,25 +7430,25 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7494,13 +7494,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>978.5393418843828</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843828</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>939.5504151240295</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1059.426580900608</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7628,19 @@
         <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803421</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7734,16 +7734,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1084.690231197904</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,7 +7813,7 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
         <v>806.6193906797589</v>
@@ -7828,28 +7828,28 @@
         <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>288.1928110140929</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>213.7176129102069</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>93.79016463310028</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>588.5633660719475</v>
+        <v>611.1777065035425</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083972</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>464.4895008354941</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>300.2068661913383</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,19 +8295,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837485</v>
+        <v>611.1777065035425</v>
       </c>
       <c r="N6" t="n">
-        <v>526.3032062588437</v>
+        <v>132.5722416498161</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>270.6522400901343</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,7 +8532,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8541,7 +8541,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>656.228399718133</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>90.06034685691823</v>
@@ -8784,10 +8784,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>173.3576105420024</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9009,22 +9009,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>578.2246058800795</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>538.5873532373481</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,16 +9477,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>407.7697853345098</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>438.5811111539143</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9498,7 +9498,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>133.4455245943154</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9954,22 +9954,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>199.6102425680203</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>298.485290672186</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>199.6102425680203</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>314.1682372053019</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10431,16 +10431,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>220.8844470939643</v>
+        <v>187.5973797276333</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>402.611255301132</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10902,22 +10902,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11145,13 +11145,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931178</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075973</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11382,19 +11382,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>199.6102425680207</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>25.08477990431465</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.603032301090991</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>56.64177929133064</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>84.15951066031205</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>156.2907529189183</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>135.8965668094566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>110.4359887895349</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>56.64177929133078</v>
       </c>
     </row>
     <row r="17">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.63424829224823e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-9.566747394273988e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>905367.0757873042</v>
+        <v>904765.528173544</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>905367.0757873042</v>
+        <v>904765.528173544</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>806667.8007638758</v>
+        <v>806667.8007638759</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>909436.2586417616</v>
+        <v>909436.2586417615</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378697.5739960494</v>
+        <v>378697.5739960492</v>
       </c>
       <c r="C2" t="n">
-        <v>378697.5739960494</v>
+        <v>378697.5739960492</v>
       </c>
       <c r="D2" t="n">
         <v>378697.5739960494</v>
@@ -26326,10 +26326,10 @@
         <v>334653.9491912412</v>
       </c>
       <c r="G2" t="n">
-        <v>378697.5739960493</v>
+        <v>378697.5739960492</v>
       </c>
       <c r="H2" t="n">
-        <v>378697.5739960492</v>
+        <v>378697.5739960491</v>
       </c>
       <c r="I2" t="n">
         <v>378697.5739960491</v>
@@ -26338,19 +26338,19 @@
         <v>378697.5739960494</v>
       </c>
       <c r="K2" t="n">
-        <v>378697.5739960494</v>
+        <v>378697.5739960495</v>
       </c>
       <c r="L2" t="n">
+        <v>378697.5739960489</v>
+      </c>
+      <c r="M2" t="n">
         <v>378697.5739960492</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>378697.5739960492</v>
+      </c>
+      <c r="O2" t="n">
         <v>378697.5739960493</v>
-      </c>
-      <c r="N2" t="n">
-        <v>378697.5739960491</v>
-      </c>
-      <c r="O2" t="n">
-        <v>378697.5739960492</v>
       </c>
       <c r="P2" t="n">
         <v>378697.5739960492</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062208</v>
+        <v>22558.42953401347</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.325536682</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728566</v>
+        <v>62456.24177539678</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277119</v>
+        <v>27767.69404277136</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
@@ -26427,10 +26427,10 @@
         <v>99893.08150805102</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805101</v>
+        <v>99893.08150805102</v>
       </c>
       <c r="G4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="H4" t="n">
         <v>147651.9979996332</v>
@@ -26445,19 +26445,19 @@
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="N4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="P4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996331</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,7 +26488,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-59137.18178998691</v>
+        <v>-55387.28358945267</v>
       </c>
       <c r="C6" t="n">
-        <v>123067.7665018688</v>
+        <v>118471.3734446025</v>
       </c>
       <c r="D6" t="n">
-        <v>117051.9648440954</v>
+        <v>109315.675620704</v>
       </c>
       <c r="E6" t="n">
-        <v>69452.28650930501</v>
+        <v>69242.55496261547</v>
       </c>
       <c r="F6" t="n">
-        <v>181574.8479833497</v>
+        <v>181365.1164366601</v>
       </c>
       <c r="G6" t="n">
-        <v>125450.4811442144</v>
+        <v>125450.4811442143</v>
       </c>
       <c r="H6" t="n">
-        <v>172875.8066808963</v>
+        <v>172875.8066808962</v>
       </c>
       <c r="I6" t="n">
         <v>172875.8066808963</v>
       </c>
       <c r="J6" t="n">
-        <v>-40166.11091638881</v>
+        <v>-33649.8257618158</v>
       </c>
       <c r="K6" t="n">
         <v>166636.0382781136</v>
       </c>
       <c r="L6" t="n">
-        <v>111453.4493434921</v>
+        <v>107404.6121330196</v>
       </c>
       <c r="M6" t="n">
-        <v>130674.9772212734</v>
+        <v>129623.2822100851</v>
       </c>
       <c r="N6" t="n">
-        <v>172875.8066808961</v>
+        <v>172875.8066808964</v>
       </c>
       <c r="O6" t="n">
-        <v>145108.1126381252</v>
+        <v>145108.1126381251</v>
       </c>
       <c r="P6" t="n">
-        <v>172875.8066808963</v>
+        <v>172875.8066808966</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26774,7 +26774,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095198</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660708</v>
+        <v>78.07030221924597</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551329</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773707</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407333</v>
+        <v>117.1268713042793</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,25 +27379,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>252.4307446170262</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27436,16 +27436,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>216.2496558295346</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>17.95957579094573</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48.86991870270535</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>9.495244038962142</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>104.004557025751</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>292.5667068059548</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>186.1689878663297</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27698,16 +27698,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>27.88843374682608</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.9184993862718</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>7.657574321493826</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27780,10 +27780,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>100.8062171602145</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27837,10 +27837,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>153.7885616961715</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>12.52732368409619</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.121544819414</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>96.41235525203562</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,7 +28074,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28743,17 +28743,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668774</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634528595</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28980,16 +28980,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.636002634528666</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29217,31 +29217,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>28.01250026485259</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29299,7 +29299,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599532</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -29308,19 +29308,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="P26" t="n">
-        <v>30.27223765901277</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431646</v>
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901215</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
@@ -29545,16 +29545,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>30.27223765901221</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L32" t="n">
-        <v>86.27291196566262</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>43.49509683159977</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>76.793854550313</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844045086</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,19 +30165,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5.636002634529063</v>
+      </c>
+      <c r="N37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>35.7104901066887</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082774</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J43" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.01250026485194</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>128.2979821082774</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34132,25 +34132,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1.236771369671924e-13</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.534324246883461e-13</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.707231357290215e-13</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.734856145506603e-13</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.638175463473446e-13</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1.398144857545746e-13</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.049948560845564e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -34214,16 +34214,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.129524869426178e-13</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.318102246374109e-13</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1.352988490699988e-13</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.237720141233448e-13</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>138.4677594163656</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>63.41616566928173</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.193229299766924</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1762440226356</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>314.7644492377669</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>155.7081677729461</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N6" t="n">
-        <v>440.931093404677</v>
+        <v>47.20012879564948</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>127.5938369108969</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>570.8562868639664</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>485.5370469911906</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>453.2152403831814</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634528664</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,7 +36057,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724868</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>318.1728500011765</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>346.1939891046024</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133864</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.00106726098205</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>449.258967987775</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751656005</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>107.2231205187084</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>205.7977317832971</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851011</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36841,16 +36841,16 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>474.7566830047985</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>107.2231205187084</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>221.480678316413</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37069,19 +37069,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044896</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338736</v>
+        <v>611.0832447409209</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511626</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>576.6378075765109</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458574</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273775</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>135.5123342397976</v>
+        <v>102.2252668734666</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>159.455512237123</v>
       </c>
       <c r="L34" t="n">
-        <v>260.7619332624708</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097888</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380292</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>312.5509084442137</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>201.4959849287087</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37622,22 +37622,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37707,7 +37707,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528635</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L41" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510917</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449114</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110592</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>488.4505918164782</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.401991121777</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187086</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,7 +37944,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.46926427500442</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835607</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>107.2231205187088</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683764</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634528635</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
